--- a/biology/Botanique/Classification_de_Wettstein/Classification_de_Wettstein.xlsx
+++ b/biology/Botanique/Classification_de_Wettstein/Classification_de_Wettstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La classification de Wettstein est une classification botanique (des Plantae lato sensu) et est l'œuvre de Richard Wettstein (né Richard von Wettstein von Westersheim, 1863-1931).
-Selon le Handbuch der Systematischen Botanik[1], dans la quatrième et dernière édition en 1935, les principaux groupes sont :
+Selon le Handbuch der Systematischen Botanik, dans la quatrième et dernière édition en 1935, les principaux groupes sont :
 I. phylum Schizophyta
 1. classis Schizophyceae
 2. classis Schizomycetes
@@ -561,8 +573,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gymnospermae
-1. subdivisio Gymnospermae
+          <t>Gymnospermae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1. subdivisio Gymnospermae
 1. classis Pteridospermae (seulement fossile)
 2. classis Cycadinae
 1. familia Cycadaceae
@@ -578,9 +595,43 @@
 7. classis Gnetinae
 1. familia Ephedraceae
 2. familia Gnetaceae
-3. familia Welwitschiaceae
-Angiospermae
-2. subdivisio Angiospermae
+3. familia Welwitschiaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classification_de_Wettstein</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_de_Wettstein</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>En détail</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Angiospermae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2. subdivisio Angiospermae
 1. classis Dicotyledones 
 1. subclassis Choripetalae 
 A. Monochlamideae 
